--- a/Backlog - The Ranch/Backlog - The Ranch.xlsx
+++ b/Backlog - The Ranch/Backlog - The Ranch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e522761cc6ed2ebb/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{233457D8-2782-48F5-93D0-712BF2A6BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{284BCA45-D27B-498B-8632-A437F2D16E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3D97DB8-0A28-4657-8CC8-49C02EF5B5DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t xml:space="preserve">BACKLOG - THE RANCH </t>
   </si>
@@ -152,9 +152,6 @@
     <t>Organização e desenvolvimento dos slides com os conteúdos que serão apresentados sobre o projeto.</t>
   </si>
   <si>
-    <t>Desenvolvimento do script das tabelas (modelagem) no MySQL e inserção de dados iniciais.</t>
-  </si>
-  <si>
     <t>Integração do site com o banco de dados através da API (web-data-viz), para armazenar as informações capturadas.</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Página contendo as informações do usuário (nome, email, estilo sertanejo preferido).</t>
   </si>
   <si>
-    <t>Página com gráficos como: "estilos mais ouvidos entre os usuários", "maiores pontuadores de cada quiz".</t>
-  </si>
-  <si>
     <t>Página contando a história do sertanejo no Brasil até os dias atuais.</t>
   </si>
   <si>
@@ -216,13 +210,88 @@
   </si>
   <si>
     <t>Verificação dos campos preenchidos pelo usuário e se estão condizentes com os requisitos do sistema.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do script das tabelas (modelagem) no MySQL e inserção de dados.</t>
+  </si>
+  <si>
+    <t>Página com gráficos como: "estilos mais ouvidos entre os usuários", "maiores pontuadores do quiz".</t>
+  </si>
+  <si>
+    <t>Página Quiz Conhecimentos Gerais (site)</t>
+  </si>
+  <si>
+    <t>Inserção do Banco de Dados na VM</t>
+  </si>
+  <si>
+    <t>Página Quiz Quem Canta? (site)</t>
+  </si>
+  <si>
+    <t>Página Quiz Complete a Música... (site)</t>
+  </si>
+  <si>
+    <t>Página Quiz Onde Nasceu? (site)</t>
+  </si>
+  <si>
+    <t>Verificação de acertos nos quizzes</t>
+  </si>
+  <si>
+    <t>Página Estilos Sertanejos</t>
+  </si>
+  <si>
+    <t>Página contendo os estilos sertanejos dos cantores.</t>
+  </si>
+  <si>
+    <t>Página com perguntas específicas sobre conhecimentos gerais do sertanejo.</t>
+  </si>
+  <si>
+    <t>Página com perguntas específicas para o usuário completar a música descrita.</t>
+  </si>
+  <si>
+    <t>Página com perguntas específicas sobre quem canta certa música.</t>
+  </si>
+  <si>
+    <t>Página com perguntas específicas sobre onde nasceu alguns nomes do sertanejo.</t>
+  </si>
+  <si>
+    <t>Inserção dos acertos no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Comparação das respostas do usuário com as alternativas corretas dos quizzes.</t>
+  </si>
+  <si>
+    <t>Gráfico de estilos mais ouvidos</t>
+  </si>
+  <si>
+    <t>Ranking de maiores pontuadores do quis</t>
+  </si>
+  <si>
+    <t>Ranking de usuários com as maiores pontuações no quis de conhecimentos gerais do sertanejo.</t>
+  </si>
+  <si>
+    <t>Gráfico na dashboard com os estilos sertanejos mais ouvidos entre os usuários.</t>
+  </si>
+  <si>
+    <t>Inserção do número de acertos do quis pelo usuário no banco de dados.</t>
+  </si>
+  <si>
+    <t>Inserção do banco de dados na Máquina Virtual Lubuntu</t>
+  </si>
+  <si>
+    <t>Funcionais</t>
+  </si>
+  <si>
+    <t>Não Funcionais</t>
+  </si>
+  <si>
+    <t>Cor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +324,13 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -314,11 +390,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,6 +425,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,517 +777,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A37682-014D-40DC-84BA-D633DD3F9D10}">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="88.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4">
+        <v>21</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="9">
+        <v>8</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="6">
+        <v>21</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="11">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="6">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="6">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="6">
+        <v>21</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="5">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="5">
-        <v>5</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="5">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="5">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="10">
-        <v>8</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="10">
-        <v>8</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="12">
-        <v>8</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="7">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="7">
-        <v>8</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="7">
-        <v>13</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="7">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="12">
-        <v>5</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="G38" s="11">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B2:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
